--- a/Data/Metadata/Angiosperms/powo/Anacardiaceae.xlsx
+++ b/Data/Metadata/Angiosperms/powo/Anacardiaceae.xlsx
@@ -432,12 +432,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>curatellifolium</t>
+          <t>braziliense</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A.St.-Hil.</t>
+          <t>Barb.Rodr.</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -450,7 +450,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Anacardium_curatellifolium</t>
+          <t>Anacardium_braziliense</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -465,12 +465,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:272097-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:69169-1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:272097-2</t>
+          <t>urn:lsid:ipni.org:names:69169-1</t>
         </is>
       </c>
     </row>
